--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codes\Data-Analysis-Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B15F1D3-538E-4661-930C-F4FC5EC661B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34108CD-2A41-486C-87CA-C97016F72A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Day #</t>
   </si>
@@ -387,7 +387,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D4" sqref="D4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,6 +457,12 @@
       <c r="B4" s="1">
         <v>45865</v>
       </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -464,6 +470,12 @@
       </c>
       <c r="B5" s="1">
         <v>45866</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codes\Data-Analysis-Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34108CD-2A41-486C-87CA-C97016F72A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83F045A-A929-4D46-A75E-3FB25F6F0350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Day #</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>MySQL (intermediate)</t>
+  </si>
+  <si>
+    <t>MySQL (advance)</t>
   </si>
 </sst>
 </file>
@@ -384,21 +390,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="6" width="37.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -416,13 +423,8 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -436,7 +438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -450,7 +452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -461,10 +463,10 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -475,18 +477,24 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>45867</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -494,7 +502,7 @@
         <v>45868</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -502,7 +510,7 @@
         <v>45869</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -510,7 +518,7 @@
         <v>45870</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -518,7 +526,7 @@
         <v>45871</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -526,7 +534,7 @@
         <v>45872</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -534,7 +542,7 @@
         <v>45873</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -542,7 +550,7 @@
         <v>45874</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -550,7 +558,7 @@
         <v>45875</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -558,7 +566,7 @@
         <v>45876</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codes\Data-Analysis-Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83F045A-A929-4D46-A75E-3FB25F6F0350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036FE3AB-7A7B-4CC4-AAF2-3463809039E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Day #</t>
   </si>
@@ -392,8 +392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,7 +402,7 @@
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -501,6 +501,12 @@
       <c r="B7" s="1">
         <v>45868</v>
       </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codes\Data-Analysis-Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036FE3AB-7A7B-4CC4-AAF2-3463809039E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9237F2D-0D16-4C46-8857-B76C23607BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Day #</t>
   </si>
@@ -49,6 +58,12 @@
   </si>
   <si>
     <t>MySQL (advance)</t>
+  </si>
+  <si>
+    <t>Practice</t>
+  </si>
+  <si>
+    <t>NIL</t>
   </si>
 </sst>
 </file>
@@ -393,7 +408,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,6 +530,12 @@
       <c r="B8" s="1">
         <v>45869</v>
       </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codes\Data-Analysis-Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9237F2D-0D16-4C46-8857-B76C23607BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFA126E-86E8-4F01-8E1E-A99E3840528C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Day #</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>NIL</t>
+  </si>
+  <si>
+    <t>Project 1</t>
   </si>
 </sst>
 </file>
@@ -408,7 +411,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,6 +547,12 @@
       <c r="B9" s="1">
         <v>45870</v>
       </c>
+      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codes\Data-Analysis-Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFA126E-86E8-4F01-8E1E-A99E3840528C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19627AB3-C41C-48EB-B976-971BB875CC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Day #</t>
   </si>
@@ -411,7 +411,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,6 +561,12 @@
       <c r="B10" s="1">
         <v>45871</v>
       </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codes\Data-Analysis-Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19627AB3-C41C-48EB-B976-971BB875CC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B845FBD8-8131-4D67-8819-331522B1FE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Day #</t>
   </si>
@@ -66,7 +66,13 @@
     <t>NIL</t>
   </si>
   <si>
-    <t>Project 1</t>
+    <t>Data Cleaning Project</t>
+  </si>
+  <si>
+    <t>19-20</t>
+  </si>
+  <si>
+    <t>EDA Project</t>
   </si>
 </sst>
 </file>
@@ -410,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,11 +567,11 @@
       <c r="B10" s="1">
         <v>45871</v>
       </c>
-      <c r="C10">
-        <v>19</v>
+      <c r="C10" t="s">
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -574,6 +580,12 @@
       </c>
       <c r="B11" s="1">
         <v>45872</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codes\Data-Analysis-Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B845FBD8-8131-4D67-8819-331522B1FE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E05467A-F83A-420B-AD39-D4F261D1DBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Day #</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>EDA Project</t>
+  </si>
+  <si>
+    <t>Excel Formulas</t>
+  </si>
+  <si>
+    <t>Excel (pivot tables)</t>
   </si>
 </sst>
 </file>
@@ -416,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,6 +601,12 @@
       <c r="B12" s="1">
         <v>45873</v>
       </c>
+      <c r="C12">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -603,6 +615,12 @@
       <c r="B13" s="1">
         <v>45874</v>
       </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -611,6 +629,12 @@
       <c r="B14" s="1">
         <v>45875</v>
       </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -618,6 +642,12 @@
       </c>
       <c r="B15" s="1">
         <v>45876</v>
+      </c>
+      <c r="C15">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codes\Data-Analysis-Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E05467A-F83A-420B-AD39-D4F261D1DBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DF5FF8-BA2D-4101-B507-56A5A7816ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Day #</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Excel (pivot tables)</t>
+  </si>
+  <si>
+    <t>x lookup</t>
+  </si>
+  <si>
+    <t>charts, comditions</t>
   </si>
 </sst>
 </file>
@@ -423,7 +429,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,16 +663,28 @@
       <c r="B16" s="1">
         <v>45877</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>45878</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -674,7 +692,7 @@
         <v>45879</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -682,7 +700,7 @@
         <v>45880</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -690,7 +708,7 @@
         <v>45881</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -698,7 +716,7 @@
         <v>45882</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -706,7 +724,7 @@
         <v>45883</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -714,7 +732,7 @@
         <v>45884</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -722,7 +740,7 @@
         <v>45885</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -730,7 +748,7 @@
         <v>45886</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -738,7 +756,7 @@
         <v>45887</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -746,7 +764,7 @@
         <v>45888</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -754,7 +772,7 @@
         <v>45889</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -762,7 +780,7 @@
         <v>45890</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -770,7 +788,7 @@
         <v>45891</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -778,7 +796,7 @@
         <v>45892</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codes\Data-Analysis-Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DF5FF8-BA2D-4101-B507-56A5A7816ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA9E75C-698C-42A3-A35D-D3761758D96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Day #</t>
   </si>
@@ -429,7 +429,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,6 +691,12 @@
       <c r="B18" s="1">
         <v>45879</v>
       </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codes\Data-Analysis-Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA9E75C-698C-42A3-A35D-D3761758D96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B41C29B-34FB-4EA9-AF02-DBFB8B46A434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Day #</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>charts, comditions</t>
+  </si>
+  <si>
+    <t>Data Cleaning</t>
+  </si>
+  <si>
+    <t>Excel Project</t>
   </si>
 </sst>
 </file>
@@ -429,7 +435,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,6 +711,12 @@
       <c r="B19" s="1">
         <v>45880</v>
       </c>
+      <c r="C19">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -712,6 +724,12 @@
       </c>
       <c r="B20" s="1">
         <v>45881</v>
+      </c>
+      <c r="C20">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codes\Data-Analysis-Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B41C29B-34FB-4EA9-AF02-DBFB8B46A434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649AB7A3-DA91-413C-8833-72408E7B36E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
     <t>Data Cleaning</t>
   </si>
   <si>
-    <t>Excel Project</t>
+    <t>Excel (Project)</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codes\Data-Analysis-Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649AB7A3-DA91-413C-8833-72408E7B36E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBBD882-737B-4D65-803C-B947D2BA4779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Day #</t>
   </si>
@@ -435,7 +435,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,6 +739,12 @@
       <c r="B21" s="1">
         <v>45882</v>
       </c>
+      <c r="C21">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codes\Data-Analysis-Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBBD882-737B-4D65-803C-B947D2BA4779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D429C81E-A7E9-4F05-930E-281B0C4AAC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>Day #</t>
   </si>
@@ -434,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,6 +753,12 @@
       <c r="B22" s="1">
         <v>45883</v>
       </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -761,6 +767,12 @@
       <c r="B23" s="1">
         <v>45884</v>
       </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -769,6 +781,12 @@
       <c r="B24" s="1">
         <v>45885</v>
       </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -776,6 +794,12 @@
       </c>
       <c r="B25" s="1">
         <v>45886</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codes\Data-Analysis-Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D429C81E-A7E9-4F05-930E-281B0C4AAC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15035AE2-CFE3-44B8-B15C-7D88226E3FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Day #</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>Excel (Project)</t>
+  </si>
+  <si>
+    <t>Tableau</t>
+  </si>
+  <si>
+    <t>Tableau Project</t>
   </si>
 </sst>
 </file>
@@ -435,7 +441,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,11 +759,11 @@
       <c r="B22" s="1">
         <v>45883</v>
       </c>
-      <c r="C22" t="s">
-        <v>9</v>
+      <c r="C22">
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -809,6 +815,12 @@
       <c r="B26" s="1">
         <v>45887</v>
       </c>
+      <c r="C26">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -817,6 +829,12 @@
       <c r="B27" s="1">
         <v>45888</v>
       </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -824,6 +842,12 @@
       </c>
       <c r="B28" s="1">
         <v>45889</v>
+      </c>
+      <c r="C28">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codes\Data-Analysis-Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15035AE2-CFE3-44B8-B15C-7D88226E3FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85298C44-07A7-48AB-BF26-6BE74D960866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>Day #</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Tableau Project</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>except proje ts</t>
   </si>
 </sst>
 </file>
@@ -440,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,6 +863,12 @@
       <c r="B29" s="1">
         <v>45890</v>
       </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codes\Data-Analysis-Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85298C44-07A7-48AB-BF26-6BE74D960866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB603F0A-69EA-4ADF-AFB4-F1B8D583FF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Day #</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>except proje ts</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>WebScrapping</t>
   </si>
 </sst>
 </file>
@@ -447,7 +453,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,6 +891,12 @@
       <c r="B31" s="1">
         <v>45892</v>
       </c>
+      <c r="C31">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -892,6 +904,12 @@
       </c>
       <c r="B32" s="1">
         <v>45893</v>
+      </c>
+      <c r="C32">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codes\Data-Analysis-Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB603F0A-69EA-4ADF-AFB4-F1B8D583FF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE519554-B5EC-4582-B549-E227B7DF91B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>Day #</t>
   </si>
@@ -453,7 +453,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,7 +912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -920,15 +920,21 @@
         <v>45894</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>45895</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -936,7 +942,7 @@
         <v>45896</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -944,7 +950,7 @@
         <v>45897</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -952,7 +958,7 @@
         <v>45898</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -960,7 +966,7 @@
         <v>45899</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codes\Data-Analysis-Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE519554-B5EC-4582-B549-E227B7DF91B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708B638C-26A8-4EA6-9808-E95847FAB003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>Day #</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>WebScrapping</t>
+  </si>
+  <si>
+    <t>WebScrapping Project</t>
   </si>
 </sst>
 </file>
@@ -452,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,6 +922,12 @@
       <c r="B33" s="1">
         <v>45894</v>
       </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -941,6 +950,12 @@
       <c r="B35" s="1">
         <v>45896</v>
       </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -948,6 +963,12 @@
       </c>
       <c r="B36" s="1">
         <v>45897</v>
+      </c>
+      <c r="C36">
+        <v>56</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codes\Data-Analysis-Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708B638C-26A8-4EA6-9808-E95847FAB003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1A6863-267B-41D5-A013-D83D19DCE909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>Day #</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>WebScrapping Project</t>
+  </si>
+  <si>
+    <t>Pandas</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,6 +981,12 @@
       <c r="B37" s="1">
         <v>45898</v>
       </c>
+      <c r="C37">
+        <v>57</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codes\Data-Analysis-Bootcamp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Data-Analysis-Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1A6863-267B-41D5-A013-D83D19DCE909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
   <si>
     <t>Day #</t>
   </si>
@@ -120,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,11 +454,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="C38" sqref="C38:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,6 +994,12 @@
       <c r="B38" s="1">
         <v>45899</v>
       </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -1002,6 +1007,12 @@
       </c>
       <c r="B39" s="1">
         <v>45900</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>Day #</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Pandas</t>
+  </si>
+  <si>
+    <t>filters in pandas</t>
   </si>
 </sst>
 </file>
@@ -455,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:D39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,6 +1018,188 @@
         <v>9</v>
       </c>
     </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45901</v>
+      </c>
+      <c r="C40">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45903</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45904</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>45905</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45906</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45907</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45909</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>45910</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>45911</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>45913</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>45914</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45916</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>45917</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45921</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>45922</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -116,7 +116,7 @@
     <t>Pandas</t>
   </si>
   <si>
-    <t>filters in pandas</t>
+    <t>indexing in pandas</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1026,7 @@
         <v>45901</v>
       </c>
       <c r="C40">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D40" t="s">
         <v>27</v>

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -116,7 +116,7 @@
     <t>Pandas</t>
   </si>
   <si>
-    <t>indexing in pandas</t>
+    <t>group by, agg</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,7 +1026,7 @@
         <v>45901</v>
       </c>
       <c r="C40">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D40" t="s">
         <v>27</v>

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
   <si>
     <t>Day #</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>group by, agg</t>
+  </si>
+  <si>
+    <t>merge, join</t>
   </si>
 </sst>
 </file>
@@ -460,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,6 +1042,12 @@
       <c r="B41" s="1">
         <v>45902</v>
       </c>
+      <c r="C41">
+        <v>60</v>
+      </c>
+      <c r="D41" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">

--- a/Progress tracker.xlsx
+++ b/Progress tracker.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>Day #</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>merge, join</t>
+  </si>
+  <si>
+    <t>visualization</t>
   </si>
 </sst>
 </file>
@@ -463,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,6 +897,12 @@
       <c r="B30" s="1">
         <v>45891</v>
       </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -1043,7 +1052,7 @@
         <v>45902</v>
       </c>
       <c r="C41">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s">
         <v>28</v>
@@ -1055,6 +1064,12 @@
       </c>
       <c r="B42" s="1">
         <v>45903</v>
+      </c>
+      <c r="C42">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
